--- a/REGULAR/ORTIZ, TRINIDAD.xlsx
+++ b/REGULAR/ORTIZ, TRINIDAD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2240148-E920-47B6-A2DC-87C64D7CDDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E24EB6-F3AB-46C7-9BDE-B81EE7147E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
   <si>
     <t>PERIOD</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>GSO</t>
+  </si>
+  <si>
+    <t>3/31 - 4/3/2023</t>
+  </si>
+  <si>
+    <t>4/11,12,13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1085,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K174" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K175" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1408,12 +1414,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K174"/>
+  <dimension ref="A2:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3408" topLeftCell="A115" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <pane ySplit="3408" topLeftCell="A112" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1582,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>14.333999999999996</v>
+        <v>9.5839999999999961</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1586,7 +1592,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4030,13 +4036,15 @@
       <c r="B120" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
@@ -4049,9 +4057,13 @@
       <c r="A121" s="40">
         <v>45017</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
+      <c r="D121" s="39">
+        <v>2</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
@@ -4061,15 +4073,19 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B122" s="20"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+      <c r="D122" s="39">
+        <v>4</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
@@ -4079,11 +4095,13 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4101,7 +4119,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4119,7 +4137,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4137,7 +4155,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4155,7 +4173,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4173,7 +4191,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4191,7 +4209,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4209,7 +4227,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4227,7 +4245,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4245,7 +4263,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4263,7 +4281,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4281,7 +4299,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4299,7 +4317,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4317,7 +4335,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4335,7 +4353,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4353,7 +4371,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4371,7 +4389,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4389,7 +4407,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4407,7 +4425,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4425,7 +4443,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4443,7 +4461,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4461,7 +4479,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4479,7 +4497,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4497,7 +4515,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4515,7 +4533,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4533,7 +4551,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4551,7 +4569,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4569,7 +4587,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4587,7 +4605,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4605,7 +4623,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4623,7 +4641,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4641,7 +4659,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4659,7 +4677,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4677,7 +4695,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4695,7 +4713,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4713,7 +4731,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4731,7 +4749,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4749,7 +4767,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4767,7 +4785,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4785,7 +4803,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4803,7 +4821,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4821,7 +4839,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4839,7 +4857,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4857,7 +4875,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -4875,7 +4893,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -4893,7 +4911,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -4911,7 +4929,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -4929,7 +4947,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -4947,7 +4965,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -4965,7 +4983,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -4983,7 +5001,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5001,21 +5019,39 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="40">
         <v>46631</v>
       </c>
-      <c r="B174" s="15"/>
-      <c r="C174" s="41"/>
-      <c r="D174" s="42"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H174" s="42"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="15"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="42"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
